--- a/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Selection Pane Fields.xlsx
+++ b/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Selection Pane Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSEEQ\Source Documents\TSEEQ Sales Sample\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26368BA8-1158-4676-B679-C3A61654C4D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC1A4B8-0FF2-4167-930F-402E3B1A57C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ENABLED</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -194,27 +191,18 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>ProductName</t>
-  </si>
-  <si>
     <t>Division</t>
   </si>
   <si>
     <t>Product Category</t>
   </si>
   <si>
-    <t>CategoryName</t>
-  </si>
-  <si>
     <t>Shipper</t>
   </si>
   <si>
     <t>Shipper Name</t>
   </si>
   <si>
-    <t>DivisionName</t>
-  </si>
-  <si>
     <t>MMM-YYYY</t>
   </si>
   <si>
@@ -231,6 +219,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
 </sst>
 </file>
@@ -631,7 +622,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,16 +634,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -660,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -668,21 +659,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -690,21 +681,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -712,10 +703,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -723,10 +714,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -734,10 +725,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -745,10 +736,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
